--- a/publipostage/01tc2d264/liste_essais_cliniques_identifies_01tc2d264.xlsx
+++ b/publipostage/01tc2d264/liste_essais_cliniques_identifies_01tc2d264.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,28 +493,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT00199576</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2002</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Prevention of Post-Extubation Laryngeal Edema With Intravenous Corticosteroids: a Prospective, Double-Blind, Placebo-Controlled Trial.</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -521,32 +531,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NCT00199719</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NCT00199615</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Study of the Pharmacokinetic Action of Amantadine and Ribavirin in Chronic Hepatitis C Non 2 -3 Genotype naïve Patients Treated With a 12 Weeks Bitherapy of Peginterferon Alpha 2a-Ribavirin, and Followed by a Tritherapy of Peginterferon Alpha 2a-Ribavirin-Amantadine for 36 Weeks</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CINAM</t>
-        </is>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
+          <t>Follow-up of Patients With Curative-Intent Surgical Resection for NSCLC : CT Scanning Versus 18 FDG Imaging.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -558,29 +569,38 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NCT00344526</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NCT00199719</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Autologous Stem Cell Transplantation (ASCT) Versus Oral Melphalan and High-Dose Dexamethasone in Patients With AL (Primary)Amyloidosis. A Prospective Randomized Trial .</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="b">
-        <v>0</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Study of the Pharmacokinetic Action of Amantadine and Ribavirin in Chronic Hepatitis C Non 2 -3 Genotype naïve Patients Treated With a 12 Weeks Bitherapy of Peginterferon Alpha 2a-Ribavirin, and Followed by a Tritherapy of Peginterferon Alpha 2a-Ribavirin-Amantadine for 36 Weeks</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>CINAM</t>
+        </is>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -591,28 +611,33 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>NCT00455676</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Chevron Osteotomy Versus SCARF Osteotomy in the Treatment of Hallux Valgus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -624,29 +649,34 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NCT00199615</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NCT00344526</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Follow-up of Patients With Curative-Intent Surgical Resection for NSCLC : CT Scanning Versus 18 FDG Imaging.</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autologous Stem Cell Transplantation (ASCT) Versus Oral Melphalan and High-Dose Dexamethasone in Patients With AL (Primary)Amyloidosis. A Prospective Randomized Trial .</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -657,28 +687,33 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NCT00199758</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NCT00199589</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>A Randomized Phase II Trial of Early Change of a Chemotherapeutic Doublet Versus Four Cycles of Chemotherapy in Advanced Non Small Cell Lung Cancer.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Treatment of Spastic Equinovarus Foot After Stroke. Efficacy: Association Between Ankle Foot Orthosis and Botulinum Toxin A (BTA) Injection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -690,28 +725,33 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NCT00199589</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NCT00199758</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Treatment of Spastic Equinovarus Foot After Stroke. Efficacy: Association Between Ankle Foot Orthosis and Botulinum Toxin A (BTA) Injection</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A Randomized Phase II Trial of Early Change of a Chemotherapeutic Doublet Versus Four Cycles of Chemotherapy in Advanced Non Small Cell Lung Cancer.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -723,32 +763,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>NCT00820937</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Interest of the Combination of the DaTSCAN Scintigraphy and MRI Scan in the Differential Diagnosis of Lewy Body Dementia From Alzheimer Disease in Patients With Hallucinations</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>DatScan</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -760,33 +805,38 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NCT00820326</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NCT00492492</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>A Randomized, Double-Blind, Placebo-Controlled, Study of Efficacy of DOLASETRON in Patients With Fibromyalgia</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dolastron</t>
-        </is>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
+          <t>Treatement of Extension Fractures of the Distal Radius : Prospective Randomized Postoperative Comparison Between Trans-styloid and Intrafical Pinning on the One Side and Volar Fixed-angle Plating on the Other Side.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>fradius</t>
+        </is>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -797,33 +847,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NCT00492492</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NCT00820326</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Treatement of Extension Fractures of the Distal Radius : Prospective Randomized Postoperative Comparison Between Trans-styloid and Intrafical Pinning on the One Side and Volar Fixed-angle Plating on the Other Side.</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>fradius</t>
-        </is>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
+          <t>A Randomized, Double-Blind, Placebo-Controlled, Study of Efficacy of DOLASETRON in Patients With Fibromyalgia</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Dolastron</t>
+        </is>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -834,32 +889,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>NCT00827463</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>The Early Detection of Anaemia During the Maternity Decreases the Anaemia at the End of the Maternity.</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>anémie</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -871,62 +931,76 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>NCT00284778</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>A Randomized Cost-minimization Trial Comparing Pemetrexed (Alimta®) Versus Docetaxel (Taxotere®) as Second Line Treatment in Advanced Non Small Cell Lung Cancer (NSCLC): Study 05-06 of Groupe Français de Pneumo-Cancérologie (GFPC).</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NCT00199602</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NCT00797537</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Prophylaxis of Thrombosis With Implantable Devices for Central Venous Access in Cancer Patients : Phase III Randomised Study</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="b">
-        <v>0</v>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Concordance Entre l'échographie du Genou et la Radiographie Standard Dans la détection Des Calcifications Dans le Cadre de la Chondrocalcinose Articulaire</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>chondro</t>
+        </is>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -937,70 +1011,76 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NCT00797537</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NCT00805402</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Concordance Entre l'échographie du Genou et la Radiographie Standard Dans la détection Des Calcifications Dans le Cadre de la Chondrocalcinose Articulaire</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>chondro</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
+          <t>Interest of Flow Cytometry for the Diagnosis, the Follow up and SIT Arrest of Hymenoptera Venom Allergy</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Cytoven</t>
+        </is>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NCT00754533</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NCT00199602</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Influence of Different Exercise Training Programs in Patients With Coronary Artery Disease on Cardiac and Respiratory Parameters</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>FRAXIO</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
+          <t>Prophylaxis of Thrombosis With Implantable Devices for Central Venous Access in Cancer Patients : Phase III Randomised Study</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1011,32 +1091,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NCT00805402</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NCT00754533</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Interest of Flow Cytometry for the Diagnosis, the Follow up and SIT Arrest of Hymenoptera Venom Allergy</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cytoven</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
+          <t>Influence of Different Exercise Training Programs in Patients With Coronary Artery Disease on Cardiac and Respiratory Parameters</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>FRAXIO</t>
+        </is>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1048,33 +1133,38 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NCT00630695</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2007-003576-19</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+          <t>NCT00456235</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Evaluation of the Efficacity of Lanreotide LP 90 mg to Minimized the Lymphorrhea Post Axillary Lymphadenectomy in Breast Cancer</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="b">
-        <v>0</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Interruption of the Calcineurine Inhibitors (ICN) and Introduction of Mycophenolate Mofetil (MMF) in Liver Transplant Patients With Side Effects Due to ICN: Study of the Reduction of the Risks of Rejection by Mycophenolate Mofetil Therapeutic Drug Monitoring</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>MONOCEPT</t>
+        </is>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1085,32 +1175,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>NCT00826683</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Detection of Circulating Endothelial Progenitor Cells (EPCs) in Peripheral Blood From Non-small Cell Lung Cancer Patients</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>CBNPC:PCE</t>
         </is>
       </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1122,33 +1217,38 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NCT00456235</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NCT00630695</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>2007-003576-19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Interruption of the Calcineurine Inhibitors (ICN) and Introduction of Mycophenolate Mofetil (MMF) in Liver Transplant Patients With Side Effects Due to ICN: Study of the Reduction of the Risks of Rejection by Mycophenolate Mofetil Therapeutic Drug Monitoring</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MONOCEPT</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
+          <t>Evaluation of the Efficacity of Lanreotide LP 90 mg to Minimized the Lymphorrhea Post Axillary Lymphadenectomy in Breast Cancer</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1159,32 +1259,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>NCT00551798</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Prediction of the Response to Chemotherapy by Tomoscintigraphie the MIBI in the Balance Sheet Pre Hodgkin's Disease and Lymphoma Malins High Grade</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>MIBI</t>
         </is>
       </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1196,180 +1301,205 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>NCT00812786</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Multicentre, Open Study for the Setting up of Population Pharmacokinetic Models and Bayesian Estimators for Individual Dose Adjustment of Immunosuppressive Drugs (Cyclosporine, Tacrolimus, Mycophenolate Mofetil, Everolimus) During the First Year Post-grafting in Adult Heart Transplant Recipients.</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>PIGREC</t>
         </is>
       </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NCT01008540</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NCT00283985</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Cytomegalovirus Resistance in Transplant Patients and Bone Marrow Recipients in the Prophylaxis Era, a French Multicentric Cohort Study</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>PHRC CMV</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
+          <t>Phase II Study of an Association of L-asparaginase-Methotrexate-Dexamethasone for Relapsing and/or Refractory Nasal and Nasal-type NK-T-cell Lymphoma</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NCT00283985</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NCT00812864</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Phase II Study of an Association of L-asparaginase-Methotrexate-Dexamethasone for Relapsing and/or Refractory Nasal and Nasal-type NK-T-cell Lymphoma</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="b">
-        <v>0</v>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Pharmacokinetic Study of Capecitabine in Elderly Cancer Patient (≥75 Years)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>capagec</t>
+        </is>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NCT01432977</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2011-002213-12</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
+          <t>NCT01008540</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Paracetamol and Setrons : Drug Interactions in the Management of Pain After Tonsillectomy in Children</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>PARATRON</t>
-        </is>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
+          <t>Cytomegalovirus Resistance in Transplant Patients and Bone Marrow Recipients in the Prophylaxis Era, a French Multicentric Cohort Study</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>PHRC CMV</t>
+        </is>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NCT00812864</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NCT01432977</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>2011-002213-12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Pharmacokinetic Study of Capecitabine in Elderly Cancer Patient (≥75 Years)</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>capagec</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
+          <t>Paracetamol and Setrons : Drug Interactions in the Management of Pain After Tonsillectomy in Children</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>PARATRON</t>
+        </is>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1381,32 +1511,37 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>NCT01659190</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>The Painful Real-life Experience of the Child of Less Than Three Years During the Removal of the Collecting Bags in the Pediatric Urgency: What Strategy of Coverage?</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>LINIPOCHE</t>
         </is>
       </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1418,28 +1553,33 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>NCT00199654</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>PET Interest in the Follow Up of Colorectal Cancer Stage II and III: Phase III Randomised Study</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1451,36 +1591,41 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NCT01268033</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2009-018266-35</t>
+          <t>NCT01200771</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>2007-005823-14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>A Prospective, Randomized, Double Blind, Placebo-controlled Phase II/III Study Evaluating the Efficacy of Rituximab in the Prevention of Relapse of Calcineurin Inhibitors Dependent Idiopathic Nephrotic Syndrome of Childhood</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>NEPHRUTIX</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
+          <t>Impact of the PET-scan in the Diagnosis Strategy of Fever Unknown Origin or Inflammatory Syndrome in Immunocompetent Patients</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>FUO-TEP</t>
+        </is>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1492,32 +1637,37 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>NCT01350817</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Randomized Open Non Comparative Multicenter Phase II Study of Sequential Erlotinib With Docetaxel Versus Docetaxel Alone in Second Line of Treatment in Patients With Non Small Cell Lung Cancer After Failure of First Line Chemotherapy</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>TARSEQ</t>
         </is>
       </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1529,36 +1679,37 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NCT01200771</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2007-005823-14</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
+          <t>NCT01188993</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Impact of the PET-scan in the Diagnosis Strategy of Fever Unknown Origin or Inflammatory Syndrome in Immunocompetent Patients</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>FUO-TEP</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
+          <t>Hemodynamic Assessment With Transpulmonary Thermodilution and Transesophageal Echocardiography in Patients With Early Septic Shock</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>HEMOSEPSIS</t>
+        </is>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1570,32 +1721,41 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NCT01188993</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NCT01268033</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>2009-018266-35</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Hemodynamic Assessment With Transpulmonary Thermodilution and Transesophageal Echocardiography in Patients With Early Septic Shock</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>HEMOSEPSIS</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
+          <t>A Prospective, Randomized, Double Blind, Placebo-controlled Phase II/III Study Evaluating the Efficacy of Rituximab in the Prevention of Relapse of Calcineurin Inhibitors Dependent Idiopathic Nephrotic Syndrome of Childhood</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>NEPHRUTIX</t>
+        </is>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1607,32 +1767,37 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>NCT01369797</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Prospective Randomized Study of the Impact on the Autonomy of the Elderly of 75 Years of Age and Older by the Unit for Prevention, Monitoring and Analysis of Aging (UPSAV).</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>GEROPASS</t>
         </is>
       </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
       <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1644,37 +1809,38 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NCT01029678</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2009-012413-21</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
+          <t>NCT01775527</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Phase II Study Evaluating Treatment With Oral Navelbine and Cisplatin Administered Weekly and Concomitant Radiotherapy in Elderly Patients With no Operable NSCLC</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>RACCOSA</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
+          <t>IgA Nephropathy, Lymphocyte Homing and IgA Class Switch</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>NIDOCIGA</t>
+        </is>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
       <c r="I34" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1685,32 +1851,37 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>NCT02374866</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Monitoring Obese Patients: Impact on the Frequency of Monitoring Weight, Quality of Life, Dietary Behavior, Physical Ability and Comorbidities</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>SUIVIOBESITE</t>
         </is>
       </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
       <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1722,32 +1893,37 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NCT01775527</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NCT02164890</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>IgA Nephropathy, Lymphocyte Homing and IgA Class Switch</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>NIDOCIGA</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
+          <t>Pharmacokinetics of Micafungin in Patients of Intensive Care Units</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>MI-K</t>
+        </is>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1759,33 +1935,42 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NCT02164890</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NCT01029678</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>2009-012413-21</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Pharmacokinetics of Micafungin in Patients of Intensive Care Units</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>MI-K</t>
-        </is>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
+          <t>Phase II Study Evaluating Treatment With Oral Navelbine and Cisplatin Administered Weekly and Concomitant Radiotherapy in Elderly Patients With no Operable NSCLC</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>RACCOSA</t>
+        </is>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
+      </c>
+      <c r="J37" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1796,32 +1981,37 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>NCT02779920</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Feasibility of Endoscopic Pylorotomy in the Treatment of Refractory Gastroparesis, Pilot Study.</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>GASTROPOP</t>
         </is>
       </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
       <c r="H38" t="b">
         <v>1</v>
       </c>
       <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1833,36 +2023,41 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>NCT02186951</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>2014-000202-35</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Prevention of Early Ventilator-associated Pneumonia With Antibiotic Therapy in Patients Treated With Mild Therapeutic Hypothermia After Cardiac Arrest.</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>ANTHARTIC</t>
         </is>
       </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1874,70 +2069,80 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>NCT02278627</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Impact of a Technique of Massage During the First Week of Hospitalization on the Recycling of the Mobility of the Knee Further to the Installation of Knee Replacement</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>PTGMass</t>
         </is>
       </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
       <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NCT01795612</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NCT02694484</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Adapted Physical Activity Effect on Aerobic Function and Fatigue at Home in Patients With Breast Cancer Treated in Adjuvant or Neoadjuvant Phase</t>
-        </is>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>APAC</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
+          <t>Search Cytomegalovirus (CMV) in Healthy Volunteers Stools Samples Selected as Potential Donor for Fecal Microbiota Transplant</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>TRANSFECMV</t>
+        </is>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1948,70 +2153,80 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NCT01862822</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NCT02300376</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Position of Children During Urine Collection: Evaluation Study</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>PUCES</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
+          <t>Designing a Bayesian Model of the Plasma Clearance of Calcium Edetate de Sodium, With a Limited Sampling Strategy for the Calculation of Glomerular Filtration Rate (GFR) and Validity Assessment Compared to the Renal Clearance of Inulin : DFGBay</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>DFGBay</t>
+        </is>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NCT02694484</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NCT01795612</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Search Cytomegalovirus (CMV) in Healthy Volunteers Stools Samples Selected as Potential Donor for Fecal Microbiota Transplant</t>
-        </is>
-      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>TRANSFECMV</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
+          <t>Adapted Physical Activity Effect on Aerobic Function and Fatigue at Home in Patients With Breast Cancer Treated in Adjuvant or Neoadjuvant Phase</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
       <c r="I43" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J43" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2022,32 +2237,37 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NCT02300376</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NCT01862822</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Designing a Bayesian Model of the Plasma Clearance of Calcium Edetate de Sodium, With a Limited Sampling Strategy for the Calculation of Glomerular Filtration Rate (GFR) and Validity Assessment Compared to the Renal Clearance of Inulin : DFGBay</t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>DFGBay</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
+          <t>Position of Children During Urine Collection: Evaluation Study</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>PUCES</t>
+        </is>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
       <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2059,32 +2279,37 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NCT02778984</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NCT03511612</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Facial Mask Tightness: A Comparative Study</t>
-        </is>
-      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>EMAF</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
+          <t>Comparison of the Ankle-Brachial Index Measurement Using a Specific Oscillometric Device vs. the Doppler Method</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>ABIOSCILLO</t>
+        </is>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
       <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2096,70 +2321,80 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NCT02460250</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NCT02778984</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Evaluation of Liver Grafts With FibroScan® Before Organ Retrieval in Patients With Brain Death</t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>FIBROSCAME</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
+          <t>Facial Mask Tightness: A Comparative Study</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>EMAF</t>
+        </is>
       </c>
       <c r="H46" t="b">
         <v>0</v>
       </c>
       <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NCT03511612</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NCT01822938</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Comparison of the Ankle-Brachial Index Measurement Using a Specific Oscillometric Device vs. the Doppler Method</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>ABIOSCILLO</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
+          <t>Follow-up of Patients' Physical Activity in Post-hospitalization by Implementation of Systems of Active Monitoring.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>TICAA'DOM</t>
+        </is>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2168,36 +2403,41 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>2016-000106-11</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>EVALUATION OF THE EFFICIENCY OF TREATMENT BY BUMETANIDE ON AUTISTIC CHILDREN WITH A KNOWN ETIOLOGY: MULTICENTER AND DOUBLE-BLIND STUDY WITH RANDOMIZED PARALLEL GROUP, AGAINST PLACEBO. 
  Evaluation de l'efficacité d'un traitement par bumétanide chez les enfants autistes avec une étiologie connue : étude multicentrique randomisée en groupes parallèles et double aveugle contre placebo.</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>BUMAUTEP 
  BUMAUTEP</t>
         </is>
       </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
       <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2209,147 +2449,167 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NCT01639898</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NCT02460250</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Phase II Trial With Lenalidomide-Dexamethasone Combination in the Treatment of POEMS Syndrome.</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>POEMS</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
+          <t>Evaluation of Liver Grafts With FibroScan® Before Organ Retrieval in Patients With Brain Death</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>FIBROSCAME</t>
+        </is>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
       <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NCT02373371</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2014-003602-32</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
+          <t>NCT01639898</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Efficacy and Safety of Metvix® Natural Daylight Photodynamic Therapy Versus Conventional Metvix® Photodynamic Therapy in Subject With Mild Actinic Keratoses</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Metvix®, Natural Daylight Photodynamic Therapy, Actinic keratosis</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
+          <t>Phase II Trial With Lenalidomide-Dexamethasone Combination in the Treatment of POEMS Syndrome.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>POEMS</t>
+        </is>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NCT01822938</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>NCT03157011</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Follow-up of Patients' Physical Activity in Post-hospitalization by Implementation of Systems of Active Monitoring.</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>TICAA'DOM</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
+          <t>Evaluation of the Prevalence of Functional Digestive Disorders During Primary Sjögren Gougerot Syndrome</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>GASTRO-SGS</t>
+        </is>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NCT03157011</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NCT02373371</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>2014-003602-32</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Evaluation of the Prevalence of Functional Digestive Disorders During Primary Sjögren Gougerot Syndrome</t>
-        </is>
-      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>GASTRO-SGS</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
+          <t>Efficacy and Safety of Metvix® Natural Daylight Photodynamic Therapy Versus Conventional Metvix® Photodynamic Therapy in Subject With Mild Actinic Keratoses</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Metvix®, Natural Daylight Photodynamic Therapy, Actinic keratosis</t>
+        </is>
       </c>
       <c r="H52" t="b">
         <v>1</v>
       </c>
       <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2361,32 +2621,37 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>NCT02563821</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Programmed Intermittent Epidural Bolus Versus Continuous Epidural Infusion for Third Trimester Medical Termination of Pregnancy Analgesia : a Randomized Study.</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>PCEA-IMG</t>
         </is>
       </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
       <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2398,74 +2663,80 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>NCT03205397</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Impact of a Child-Parent Preoperative Accompanying Procedure on the Anxiety of Children Aged 5 to 12 With Scheduled Surgery</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>I-PPOP</t>
         </is>
       </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
       <c r="H54" t="b">
         <v>0</v>
       </c>
       <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NCT01501760</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2010-022858-16</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
+          <t>NCT03559283</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Effect of Bevacizumab Subconjunctival Injections on Corneal Newvessels</t>
-        </is>
-      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>BECONNEC</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
+          <t>Using Functional Near-infrared Spectroscopy (fNIRS) in the Evaluation of Cognitive-motor Interference in Post-stroke Patients</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>ICM-AVC</t>
+        </is>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2476,36 +2747,41 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>NCT03769597</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>2018-002778-35</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Description of the Evolution of Plasma and Urinary Concentrations of Iohexol in a Cirrhotic Patient Population: "Pilot Study on 9 Patients"</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>DFG HEP</t>
         </is>
       </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2517,32 +2793,37 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>NCT02047591</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Study of a Therapy Without Drugs, Supplementary to an Usual Treatment for the Pains Caused by Removing the Redon's Drain From a 7 to 17 Years Old Child in Pediatric Surgery.</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>TOUTETDOU</t>
         </is>
       </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
       <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2554,70 +2835,84 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NCT02155686</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>NCT02993133</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Etude de l'Impact Clinique de la télésurveillance à Domicile Par télémédecine de paramètres biométriques de la Personne âgée Polypathologique</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>e-COBAHLT</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
+          <t>Pharmacokinetics Study of Mycophenolic Acid in Patients With an Autoimmune Bullous Dermatose, Pemphigus or Cicatricial Pemphigoid.</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>PEMPA</t>
+        </is>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
       <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NCT02683590</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NCT01501760</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>2010-022858-16</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>STernectOmy Repair Efficiency of a Ceramic Implant</t>
-        </is>
-      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>STOIC</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
+          <t>Effect of Bevacizumab Subconjunctival Injections on Corneal Newvessels</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>BECONNEC</t>
+        </is>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
       <c r="I59" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J59" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2628,33 +2923,38 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NCT03118401</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NCT02716051</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Stool Ritual: Impact on the Number of Nights Without Stools Among Dependent Residents in Institutions for Dependent Elderly People</t>
-        </is>
-      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>RITUELIM</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
+          <t>Initial Staging of Bronchopulmonary Neoplasia: Whole-body MRI Versus Pet Scanner</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>WISLON</t>
+        </is>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
       <c r="I60" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2665,32 +2965,37 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>NCT02816177</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Impact of Telemedicine on Avoiding Emergency Hospital Admissions and Hospitalization for Nursing Home Residents</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>GERONTACCESS</t>
         </is>
       </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
       <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2702,32 +3007,37 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>NCT03076151</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Interventional Multicentre Pharmacokinetic Study of Adoport® (Tacrolimus) in Patients With de Novo Kidney Transplantation</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>IMPAKT</t>
         </is>
       </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
       <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2739,33 +3049,38 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NCT02716051</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>NCT03118401</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Initial Staging of Bronchopulmonary Neoplasia: Whole-body MRI Versus Pet Scanner</t>
-        </is>
-      </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>WISLON</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
+          <t>Stool Ritual: Impact on the Number of Nights Without Stools Among Dependent Residents in Institutions for Dependent Elderly People</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>RITUELIM</t>
+        </is>
       </c>
       <c r="H63" t="b">
         <v>0</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
+      </c>
+      <c r="J63" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2776,32 +3091,37 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NCT03559283</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>NCT02155686</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Using Functional Near-infrared Spectroscopy (fNIRS) in the Evaluation of Cognitive-motor Interference in Post-stroke Patients</t>
-        </is>
-      </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>ICM-AVC</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
+          <t>Etude de l'Impact Clinique de la télésurveillance à Domicile Par télémédecine de paramètres biométriques de la Personne âgée Polypathologique</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>e-COBAHLT</t>
+        </is>
       </c>
       <c r="H64" t="b">
         <v>0</v>
       </c>
       <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2813,185 +3133,210 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NCT02993133</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>NCT02683590</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Pharmacokinetics Study of Mycophenolic Acid in Patients With an Autoimmune Bullous Dermatose, Pemphigus or Cicatricial Pemphigoid.</t>
-        </is>
-      </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>PEMPA</t>
-        </is>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
+          <t>STernectOmy Repair Efficiency of a Ceramic Implant</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>STOIC</t>
+        </is>
       </c>
       <c r="H65" t="b">
         <v>0</v>
       </c>
       <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NCT04885387</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>NCT02531737</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>2015-000475-27</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>X-ray-free Protocol for Pectus Deformities Based on Magnetic Resonance 1 Imaging and a Low-cost Portable Three-dimensional Scanning Device</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="b">
-        <v>0</v>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Multicenter Phase II Trial of Nintedanib (Vargatef®) Plus Docetaxel in Second Line of Treatment in Patients With no Squamous Non Small Cell Lung Cancer Refractory to First Line Chemotherapy</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>REFRACT</t>
+        </is>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NCT03698565</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>NCT02816476</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>2016-000287-42</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Evaluation of the Analgesia Nociception Index and Videopupillometry to Predict a Child's Post-tonsillectomy Morphine Prescription</t>
-        </is>
-      </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>ENIGME</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
+          <t>A Multicentre Open Label Phase II Study of Daratumumab in AL Amyloidosis Patients Not in VGPR or Better</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>AMYDARA</t>
+        </is>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J67" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NCT02531737</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2015-000475-27</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
+          <t>NCT04885387</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Multicenter Phase II Trial of Nintedanib (Vargatef®) Plus Docetaxel in Second Line of Treatment in Patients With no Squamous Non Small Cell Lung Cancer Refractory to First Line Chemotherapy</t>
-        </is>
-      </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>REFRACT</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
+          <t>X-ray-free Protocol for Pectus Deformities Based on Magnetic Resonance 1 Imaging and a Low-cost Portable Three-dimensional Scanning Device</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NCT02816476</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2016-000287-42</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
+          <t>NCT03698565</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>A Multicentre Open Label Phase II Study of Daratumumab in AL Amyloidosis Patients Not in VGPR or Better</t>
-        </is>
-      </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>AMYDARA</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
+          <t>Evaluation of the Analgesia Nociception Index and Videopupillometry to Predict a Child's Post-tonsillectomy Morphine Prescription</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>ENIGME</t>
+        </is>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3002,32 +3347,37 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NCT04889573</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>NCT04797117</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Immunoglobulin Gene Rearrangement and Repair in Healthy Donors</t>
-        </is>
-      </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>R2IGH</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
+          <t>Analytical Validation of the abioSCOPE Device With a PSP Test: Point-of-Care Precision, Sample Type Comparison and Sample Stability</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>AB-PSP-005</t>
+        </is>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
       <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3039,32 +3389,37 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NCT02334345</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>NCT02152449</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Skin Protection During Radiotherapy in Patients With Breast Cancer: A Comparative Study of Evoskin® Verus Trixéra®</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>EVOSKIN</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
+          <t>Impact on Functional Status of Early Oral Nutritional Supplementation (ONS) in Amyotrophic Lateral Sclerosis (ALS) Patients</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>NUTRALS</t>
+        </is>
       </c>
       <c r="H71" t="b">
         <v>0</v>
       </c>
       <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3076,32 +3431,37 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NCT04797117</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>NCT04889573</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Analytical Validation of the abioSCOPE Device With a PSP Test: Point-of-Care Precision, Sample Type Comparison and Sample Stability</t>
-        </is>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>AB-PSP-005</t>
-        </is>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
+          <t>Immunoglobulin Gene Rearrangement and Repair in Healthy Donors</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>R2IGH</t>
+        </is>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
       <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3113,32 +3473,37 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
           <t>NCT03185663</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>Pilot Study Comparing Two Techniques of Taking Care Analgesic in Patients 70 and Older, Awaiting Surgery After Extracapsular Fracture of the Proximal Femur</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>ALGOFRACT</t>
         </is>
       </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
       <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3150,32 +3515,37 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NCT02152449</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>NCT02334345</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Impact on Functional Status of Early Oral Nutritional Supplementation (ONS) in Amyotrophic Lateral Sclerosis (ALS) Patients</t>
-        </is>
-      </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>NUTRALS</t>
-        </is>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
+          <t>Skin Protection During Radiotherapy in Patients With Breast Cancer: A Comparative Study of Evoskin® Verus Trixéra®</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>EVOSKIN</t>
+        </is>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
       <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3187,32 +3557,37 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NCT05171114</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>NCT04803799</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Scleroderma: Description of Functional Disability Between the Dominant and Contralateral Hand, a Single-centre Descriptive Cohort.</t>
-        </is>
-      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>SCLERO-HAND</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
+          <t>Effects of an Exergame Focused on Cognitive-motor Interference on the Cognitive and Motor Capacities of Older Adults</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>INCOME</t>
+        </is>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
       <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3224,32 +3599,37 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NCT05540210</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>NCT02813928</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Analytical Validation of the abioSCOPE Device With the IVD CAPSULE PSP Test: Comparison of PSP Values Measured With Venous Whole Blood and Those Measured With Arterial Whole Blood</t>
-        </is>
-      </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>AB-PSP-006</t>
-        </is>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
+          <t>Diagnostic and Prognosis Value of Circulating DNA for CRC Patients' Surveillance After Curative Treatment</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>ADNCirc</t>
+        </is>
       </c>
       <c r="H76" t="b">
         <v>0</v>
       </c>
       <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3261,32 +3641,37 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NCT04803799</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>NCT05540210</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Effects of an Exergame Focused on Cognitive-motor Interference on the Cognitive and Motor Capacities of Older Adults</t>
-        </is>
-      </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>INCOME</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
+          <t>Analytical Validation of the abioSCOPE Device With the IVD CAPSULE PSP Test: Comparison of PSP Values Measured With Venous Whole Blood and Those Measured With Arterial Whole Blood</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>AB-PSP-006</t>
+        </is>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
       <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3298,32 +3683,37 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NCT02813928</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>NCT05171114</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Diagnostic and Prognosis Value of Circulating DNA for CRC Patients' Surveillance After Curative Treatment</t>
-        </is>
-      </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ADNCirc</t>
-        </is>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
+          <t>Scleroderma: Description of Functional Disability Between the Dominant and Contralateral Hand, a Single-centre Descriptive Cohort.</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>SCLERO-HAND</t>
+        </is>
       </c>
       <c r="H78" t="b">
         <v>0</v>
       </c>
       <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3335,32 +3725,37 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NCT05545566</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>NCT05477238</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Evaluation of Thoracic Ultrasound in Monitoring Pleural Drainage in Postoperative Thoracic Surgery</t>
-        </is>
-      </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>EchTHor</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
+          <t>Oxygen Consumption in Post-stroke Patients During Various Walking Activities Compared to Healthy Controls</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>STROXCO</t>
+        </is>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
       <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3372,32 +3767,37 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NCT05477238</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>NCT05545566</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Oxygen Consumption in Post-stroke Patients During Various Walking Activities Compared to Healthy Controls</t>
-        </is>
-      </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>STROXCO</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
+          <t>Evaluation of Thoracic Ultrasound in Monitoring Pleural Drainage in Postoperative Thoracic Surgery</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>EchTHor</t>
+        </is>
       </c>
       <c r="H80" t="b">
         <v>0</v>
       </c>
       <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3409,32 +3809,37 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
           <t>NCT03133273</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>Study of the Therapeutic Response and Survival of Patients with Metastatic Colorectal Cancer (stage IV) and Treated According to the Guidelines of a Chemosensitivity Test, Oncogramme®</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>ONCOGRAM</t>
         </is>
       </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
       <c r="H81" t="b">
         <v>1</v>
       </c>
       <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3446,28 +3851,33 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
           <t>NCT01305161</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
         <is>
           <t>Diagnostic Accuracy of Flow Cytometry Applied to the Diagnosis of Peri-anaesthesic Reactions Induced by Neuromuscular Blockers</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>CYPREANE</t>
         </is>
       </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
       <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3479,24 +3889,29 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
           <t>NCT00199641</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
         <is>
           <t>Evaluation of Two Enteral Nutrition Strategies in Mechanically Ventilated Patients</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="b">
         <v>0</v>
       </c>
       <c r="I83" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3506,30 +3921,35 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
         <is>
           <t>2006-005113-35</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
         <is>
           <t>Efficacité d'un ocytocique seul versus ocytocique/misoprostol sur la quantité des pertes sanguines liées à la délivrance</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>GYMISO</t>
         </is>
       </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
       <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3541,24 +3961,29 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>NCT00559195</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
         <is>
           <t>Phase 2 Study Evaluating the Efficacy of Epoetin Beta (Neocormon®) For Fatigue and Quality of Life of Patients Receiving Palliative Care for a Solid Malignant Tumor</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="b">
         <v>0</v>
       </c>
       <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3570,24 +3995,29 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
           <t>NCT00559676</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
         <is>
           <t>Phase 4 Study to Characterize and Evaluate Markers of Chemoresistance in Patients With Metastatic Colorectal Cancer</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="b">
         <v>0</v>
       </c>
       <c r="I86" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" t="b">
         <v>1</v>
       </c>
     </row>

--- a/publipostage/01tc2d264/liste_essais_cliniques_identifies_01tc2d264.xlsx
+++ b/publipostage/01tc2d264/liste_essais_cliniques_identifies_01tc2d264.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +527,11 @@
       <c r="J2" t="b">
         <v>1</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -560,6 +570,11 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -602,6 +617,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -640,6 +660,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -678,6 +703,11 @@
       <c r="J6" t="b">
         <v>1</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -716,6 +746,11 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -754,6 +789,11 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -796,6 +836,11 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -838,6 +883,11 @@
       <c r="J10" t="b">
         <v>1</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -880,6 +930,11 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -922,6 +977,11 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -960,6 +1020,11 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1002,6 +1067,11 @@
       <c r="J14" t="b">
         <v>0</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1044,6 +1114,11 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1082,6 +1157,11 @@
       <c r="J16" t="b">
         <v>1</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1124,6 +1204,11 @@
       <c r="J17" t="b">
         <v>0</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1166,6 +1251,11 @@
       <c r="J18" t="b">
         <v>0</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1208,6 +1298,11 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1250,6 +1345,11 @@
       <c r="J20" t="b">
         <v>1</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1292,6 +1392,11 @@
       <c r="J21" t="b">
         <v>0</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1334,6 +1439,11 @@
       <c r="J22" t="b">
         <v>0</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1372,6 +1482,11 @@
       <c r="J23" t="b">
         <v>1</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1414,6 +1529,11 @@
       <c r="J24" t="b">
         <v>1</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1456,6 +1576,11 @@
       <c r="J25" t="b">
         <v>1</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1502,6 +1627,11 @@
       <c r="J26" t="b">
         <v>1</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1544,6 +1674,11 @@
       <c r="J27" t="b">
         <v>0</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1582,6 +1717,11 @@
       <c r="J28" t="b">
         <v>1</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1628,6 +1768,11 @@
       <c r="J29" t="b">
         <v>1</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1670,6 +1815,11 @@
       <c r="J30" t="b">
         <v>0</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1712,6 +1862,11 @@
       <c r="J31" t="b">
         <v>1</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>COMBINATION_PRODUCT</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1758,6 +1913,11 @@
       <c r="J32" t="b">
         <v>1</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1800,6 +1960,11 @@
       <c r="J33" t="b">
         <v>0</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1842,6 +2007,11 @@
       <c r="J34" t="b">
         <v>0</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1884,6 +2054,11 @@
       <c r="J35" t="b">
         <v>0</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1926,6 +2101,11 @@
       <c r="J36" t="b">
         <v>0</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1972,6 +2152,11 @@
       <c r="J37" t="b">
         <v>1</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2014,6 +2199,11 @@
       <c r="J38" t="b">
         <v>1</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2060,6 +2250,11 @@
       <c r="J39" t="b">
         <v>1</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2102,6 +2297,11 @@
       <c r="J40" t="b">
         <v>0</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2144,6 +2344,11 @@
       <c r="J41" t="b">
         <v>0</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2186,6 +2391,11 @@
       <c r="J42" t="b">
         <v>0</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2228,6 +2438,11 @@
       <c r="J43" t="b">
         <v>1</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2270,6 +2485,11 @@
       <c r="J44" t="b">
         <v>0</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2312,6 +2532,11 @@
       <c r="J45" t="b">
         <v>0</v>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2354,6 +2579,11 @@
       <c r="J46" t="b">
         <v>0</v>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2396,6 +2626,11 @@
       <c r="J47" t="b">
         <v>1</v>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2440,6 +2675,7 @@
       <c r="J48" t="b">
         <v>1</v>
       </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2482,6 +2718,11 @@
       <c r="J49" t="b">
         <v>0</v>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2524,6 +2765,11 @@
       <c r="J50" t="b">
         <v>0</v>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2566,6 +2812,11 @@
       <c r="J51" t="b">
         <v>1</v>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2612,6 +2863,11 @@
       <c r="J52" t="b">
         <v>1</v>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2654,6 +2910,11 @@
       <c r="J53" t="b">
         <v>0</v>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2696,6 +2957,11 @@
       <c r="J54" t="b">
         <v>0</v>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2738,6 +3004,11 @@
       <c r="J55" t="b">
         <v>0</v>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2784,6 +3055,11 @@
       <c r="J56" t="b">
         <v>1</v>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2826,6 +3102,11 @@
       <c r="J57" t="b">
         <v>0</v>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2868,6 +3149,11 @@
       <c r="J58" t="b">
         <v>0</v>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2914,6 +3200,11 @@
       <c r="J59" t="b">
         <v>1</v>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2956,6 +3247,11 @@
       <c r="J60" t="b">
         <v>0</v>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2998,6 +3294,11 @@
       <c r="J61" t="b">
         <v>0</v>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3040,6 +3341,11 @@
       <c r="J62" t="b">
         <v>0</v>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3082,6 +3388,11 @@
       <c r="J63" t="b">
         <v>1</v>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3124,6 +3435,11 @@
       <c r="J64" t="b">
         <v>0</v>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3166,6 +3482,11 @@
       <c r="J65" t="b">
         <v>0</v>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3212,6 +3533,11 @@
       <c r="J66" t="b">
         <v>1</v>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3258,6 +3584,11 @@
       <c r="J67" t="b">
         <v>1</v>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3296,6 +3627,11 @@
       <c r="J68" t="b">
         <v>0</v>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3338,6 +3674,11 @@
       <c r="J69" t="b">
         <v>0</v>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3380,6 +3721,11 @@
       <c r="J70" t="b">
         <v>0</v>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3422,6 +3768,11 @@
       <c r="J71" t="b">
         <v>0</v>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3464,6 +3815,11 @@
       <c r="J72" t="b">
         <v>0</v>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3506,6 +3862,11 @@
       <c r="J73" t="b">
         <v>0</v>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3548,6 +3909,11 @@
       <c r="J74" t="b">
         <v>0</v>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3590,6 +3956,11 @@
       <c r="J75" t="b">
         <v>0</v>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3632,6 +4003,11 @@
       <c r="J76" t="b">
         <v>0</v>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3674,6 +4050,11 @@
       <c r="J77" t="b">
         <v>0</v>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3716,6 +4097,11 @@
       <c r="J78" t="b">
         <v>0</v>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3758,6 +4144,11 @@
       <c r="J79" t="b">
         <v>0</v>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3800,6 +4191,11 @@
       <c r="J80" t="b">
         <v>0</v>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3841,6 +4237,11 @@
       </c>
       <c r="J81" t="b">
         <v>1</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -3880,6 +4281,11 @@
       <c r="J82" t="b">
         <v>0</v>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3914,6 +4320,11 @@
       <c r="J83" t="b">
         <v>0</v>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3952,6 +4363,7 @@
       <c r="J84" t="b">
         <v>0</v>
       </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3986,6 +4398,11 @@
       <c r="J85" t="b">
         <v>0</v>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4019,6 +4436,11 @@
       </c>
       <c r="J86" t="b">
         <v>1</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
       </c>
     </row>
   </sheetData>
